--- a/demo.xlsx
+++ b/demo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="360" yWindow="105" windowWidth="14355" windowHeight="4695" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="360" yWindow="108" windowWidth="14352" windowHeight="4692" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -348,18 +348,20 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="41.5703125" customWidth="1" min="1" max="1"/>
+    <col width="41.5546875" customWidth="1" min="1" max="1"/>
     <col width="47" customWidth="1" min="2" max="2"/>
-    <col width="39.85546875" customWidth="1" min="3" max="3"/>
+    <col width="39.88671875" customWidth="1" min="3" max="3"/>
     <col width="43" customWidth="1" min="5" max="5"/>
+    <col width="14.88671875" customWidth="1" min="6" max="7"/>
+    <col width="11.6640625" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -393,6 +395,71 @@
           <t>Contact</t>
         </is>
       </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Amount Paid</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Baisakh</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Jestha</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Ashad</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Shrawan</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Bhadra</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Karktik</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Mangsir</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Poush</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Magh</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Falgun</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Chaitra</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Total paid</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -420,6 +487,13 @@
           <t>989898</t>
         </is>
       </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <f>SUM(Q2,H2,I2,J2,K2,L2:M2,N2,O2,P2,R2)</f>
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -447,6 +521,10 @@
           <t>98989898</t>
         </is>
       </c>
+      <c r="S3">
+        <f>SUM(Q3,H3,I3,J3,K3,L3:M3,N3,O3,P3,R3)</f>
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -479,6 +557,10 @@
           <t>981111111111111</t>
         </is>
       </c>
+      <c r="S4">
+        <f>SUM(Q4,H4,I4,J4,K4,L4:M4,N4,O4,P4,R4)</f>
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -511,9 +593,169 @@
           <t>9824209329</t>
         </is>
       </c>
+      <c r="S5">
+        <f>SUM(Q5,H5,I5,J5,K5,L5:M5,N5,O5,P5,R5)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Sandeep Thapa</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Babu Ram Thapa</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Shree Thapa</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>chitwan</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>989911</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <f>SUM(Q6,H6,I6,J6,K6,L6:M6,N6,O6,P6,R6)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="S7">
+        <f>SUM(Q7,H7,I7,J7,K7,L7:M7,N7,O7,P7,R7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="S8">
+        <f>SUM(Q8,H8,I8,J8,K8,L8:M8,N8,O8,P8,R8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="S9">
+        <f>SUM(Q9,H9,I9,J9,K9,L9:M9,N9,O9,P9,R9)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="S10">
+        <f>SUM(Q10,H10,I10,J10,K10,L10:M10,N10,O10,P10,R10)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Sandeep Thapa</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Babu Ram Thapa</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Shree Thapa</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>chitwan</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>989911</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>drter</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>rtyt</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ggh</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>hghk</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>huhu</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>guhj</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -529,7 +771,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -547,7 +789,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/demo.xlsx
+++ b/demo.xlsx
@@ -348,7 +348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,6 +509,85 @@
       <c r="F5" t="inlineStr">
         <is>
           <t>9824209329</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>msdjkn</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>lkl</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>mlml</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>mlml</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>mlmlm</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>lmlm</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>mlk</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>mcnjlkn</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>kmlkm</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>lkmlk</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>mlkm</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>lkml</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>kmlk</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>mlk</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>mlk</t>
         </is>
       </c>
     </row>

--- a/demo.xlsx
+++ b/demo.xlsx
@@ -348,7 +348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,39 +356,44 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="41.5703125" customWidth="1" min="1" max="1"/>
-    <col width="47" customWidth="1" min="2" max="2"/>
-    <col width="39.85546875" customWidth="1" min="3" max="3"/>
-    <col width="43" customWidth="1" min="5" max="5"/>
+    <col width="41.5703125" customWidth="1" min="2" max="2"/>
+    <col width="47" customWidth="1" min="3" max="3"/>
+    <col width="39.85546875" customWidth="1" min="4" max="4"/>
+    <col width="43" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Roll No</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Father's Name</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>GrandFather's Name</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Address</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
@@ -397,39 +402,49 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>anuj</t>
+          <t>001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>idk</t>
+          <t>anuj timsina</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>idk</t>
+          <t>koi</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>koi</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>989898</t>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>koi</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Thapa tori</t>
+          <t>002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>koi</t>
+          <t>Sandeep thapa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -439,155 +454,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9999</t>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>koi</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>98989898</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>thapa tori ho tori nai ho</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>hai thapa tori ho</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>tori thapa tori thapa</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>19999</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>somewhere in somewhere</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>981111111111111</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>hello</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>this</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>is th</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>sdknv</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>9824209329</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>msdjkn</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>lkl</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>mlml</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>mlml</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>mlmlm</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>lmlm</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>mlk</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>mcnjlkn</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>kmlkm</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>lkmlk</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>mlkm</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>lkml</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>kmlk</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>mlk</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>mlk</t>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>koi</t>
         </is>
       </c>
     </row>

--- a/demo.xlsx
+++ b/demo.xlsx
@@ -348,88 +348,163 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="41.5703125" customWidth="1" min="1" max="1"/>
-    <col width="47" customWidth="1" min="2" max="2"/>
-    <col width="39.85546875" customWidth="1" min="3" max="3"/>
-    <col width="43" customWidth="1" min="5" max="5"/>
+    <col width="41.5703125" customWidth="1" min="2" max="2"/>
+    <col width="47" customWidth="1" min="3" max="3"/>
+    <col width="39.85546875" customWidth="1" min="4" max="4"/>
+    <col width="43" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Roll No</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Father's Name</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>GrandFather's Name</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Address</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Contact</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Baisakh</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Jestha</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Ashad</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Shrawan</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Bhadra</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Ashwin</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Kartik</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Mangsir</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Poush</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Magh</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Falgun</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Chaitra</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>anuj</t>
+          <t>001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>idk</t>
+          <t>anuj timsina</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>idk</t>
+          <t>koi</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>koi</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>989898</t>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>koi</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Thapa tori</t>
+          <t>002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>koi</t>
+          <t>Sandeep thapa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -439,76 +514,967 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9999</t>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>koi</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>98989898</t>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>koi</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>thapa tori ho tori nai ho</t>
+          <t>023</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>hai thapa tori ho</t>
+          <t>aalish kshetry</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>tori thapa tori thapa</t>
+          <t>koi</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>19999</t>
+          <t>koi</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>somewhere in somewhere</t>
+          <t>koi</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>981111111111111</t>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>koi</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>hello</t>
+          <t>090</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>this</t>
+          <t>someone</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>is th</t>
+          <t>koi</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>thapa</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>koik</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>004</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>aalish</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>008</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ako</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ko</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ko</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>kok</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>oko</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>kok</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0098</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>mkj</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>kjn</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>kn</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>kn</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>kjn</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>kjn</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>087</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>mjnjbh</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>nkjb</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>knjh</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>bkjb</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>nkj</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>97678</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>njbhjqk</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>jknlk</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>klm</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>klmlk</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>mlk</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>mlk</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>njhb</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>kj</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>jhb</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>kjn</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>kjnk</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>jnk</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>,mjn</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>lnlm</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>klm</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>lijo</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>klj</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>njk</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>jknkj</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>nkj</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>kjnk</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>jnkj</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>nkjnk</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>nkj</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>nkn</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>kjn</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>kj</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>oiuoi</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>oij</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>oin</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>jioj</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>jo</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>joi</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>oj</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>908</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>9njb</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>jkkj</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>nk</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>nlk</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>lkm</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">jnmn </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> m</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>mlkmkm</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>lml</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>ml;m;</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>m;l</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>hfg</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>vgv</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ghb</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>hb</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>jbh</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>09</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>sdknv</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>9824209329</t>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>jnhjb</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>hbh</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>jbhj</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>bhb</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>jhhb</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>okoi</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>last</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>jmjk</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>nnkj</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>nkjn</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>kjn</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>kjn</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>koikoi</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">n </t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">n </t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> m </t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">n </t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>koikoi</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">n </t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">n </t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> m </t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">n </t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>koikoi</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">n </t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">n </t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> m </t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">n </t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>009</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>noone</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>kmkom</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>okpok</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>opkpo</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>kpok</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>pok</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>0876</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>jnjk.ml</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>njknj</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>nkj</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>nkjn</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>kjn</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>kn</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>1888</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>0366</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>thapa tori</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>0909</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>anuj tori</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>90</t>
         </is>
       </c>
     </row>

--- a/demo.xlsx
+++ b/demo.xlsx
@@ -348,10 +348,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -398,6 +398,71 @@
           <t>Contact</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Baisakh</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Jestha</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Ashad</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Shrawan</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Bhadra</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Ashwin</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Kartik</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Mangsir</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Poush</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Magh</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Falgun</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Chaitra</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Total Amount paid</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -432,8 +497,30 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>koi</t>
-        </is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -471,6 +558,1209 @@
         <is>
           <t>koi</t>
         </is>
+      </c>
+      <c r="T3" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>023</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>aalish kshetry</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>090</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>someone</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>thapa</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>koik</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>004</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>aalish</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>008</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ako</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ko</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ko</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>kok</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>oko</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>kok</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0098</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>mkj</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>kjn</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>kn</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>kn</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>kjn</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>kjn</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>087</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>mjnjbh</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>nkjb</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>knjh</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>bkjb</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>nkj</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>97678</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>njbhjqk</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>jknlk</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>klm</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>klmlk</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>mlk</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>mlk</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>njhb</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>kj</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>jhb</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>kjn</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>kjnk</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>jnk</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>,mjn</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>lnlm</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>klm</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>lijo</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>klj</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>njk</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>jknkj</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>nkj</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>kjnk</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>jnkj</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>nkjnk</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>nkj</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>nkn</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>kjn</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>kj</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>oiuoi</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>oij</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>oin</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>jioj</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>jo</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>joi</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>oj</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>908</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>9njb</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>jkkj</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>nk</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>nlk</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>lkm</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">jnmn </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> m</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>mlkmkm</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>lml</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>ml;m;</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>m;l</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>hfg</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>vgv</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ghb</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>hb</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>jbh</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>jnhjb</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>hbh</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>jbhj</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>bhb</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>jhhb</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>okoi</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>last</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>jmjk</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>nnkj</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>nkjn</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>kjn</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>kjn</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>koikoi</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">n </t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">n </t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> m </t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">n </t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>koikoi</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">n </t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">n </t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> m </t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">n </t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>koikoi</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">n </t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">n </t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> m </t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">n </t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>009</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>noone</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>kmkom</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>okpok</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>opkpo</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>kpok</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>pok</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>0876</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>jnjk.ml</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>njknj</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>nkj</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>nkjn</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>kjn</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>kn</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>1888</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>0366</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>thapa tori</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>0909</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>anuj tori</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">anuj </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>jnkjn</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>knkj</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>nkj</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>nkj</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>nkj</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>8789</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>nk</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2121121</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>kj</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>kokpo</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>kpk</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>pok</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>opk</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>pokpo</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>jklj</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>mmlkm</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>lkmlk</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>mklm</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>lk</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>mlkm</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ojo</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>kj</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>koj</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>ioj</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>oij</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>ji</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10000</v>
+      </c>
+      <c r="N33" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>koko</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>kjjk</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>n,m</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>,m</t>
+        </is>
+      </c>
+      <c r="O34" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
